--- a/biology/Médecine/Maladie_de_Paget/Maladie_de_Paget.xlsx
+++ b/biology/Médecine/Maladie_de_Paget/Maladie_de_Paget.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chirurgien anglais Sir James Paget a donné son nom à trois maladies, dites maladies de Paget : la plus connue, la maladie osseuse de Paget, la maladie de Paget du mamelon (qui est un cancer du sein) et la maladie de Paget extramammaire.
 </t>
@@ -511,7 +523,9 @@
           <t>La maladie osseuse de Paget</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Décrite en 1877, la maladie osseuse de Paget est une maladie touchant les os, localisée à un ou plusieurs os, caractérisée par un remodelage osseux excessif aboutissant à une hypertrophie progressive des pièces osseuses et à d'importantes anomalies de la micro-architecture osseuse. Il s'agit d'une ostéite déformante d'origine inconnue.
 </t>
@@ -542,7 +556,9 @@
           <t>La maladie de Paget mammaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À ne pas confondre avec la précédente, elle est caractérisée par l'apparition d'une plaque eczématiforme sur le mamelon, chez la femme. Elle doit être diagnostiquée rapidement et traitée en urgence : la maladie de Paget du mamelon est en effet une forme de cancer du sein inflammatoire, particulièrement sévère, touchant les canaux galactophoriques sous-mamelonnaires.
 </t>
@@ -573,7 +589,9 @@
           <t>La maladie de Paget extramammaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 D'évolution habituellement lente, peu ou pas envahissante, se développant sur le revêtement cutané, la maladie de Paget extramammaire, appelée également « maladie de Paget mammaire extramammaire » en référence à son histologie qui est identique à la maladie de Paget du sein, est un adénocarcinome intraépidermique.
